--- a/input/phenotype_microbiome.xlsx
+++ b/input/phenotype_microbiome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\328824_3_56\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\질내미생물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2B5F0-0DE1-46EF-90A8-47F491290A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102B006-A8A7-4E03-AE01-BAC45163AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46275" yWindow="495" windowWidth="16950" windowHeight="8445" xr2:uid="{D54E4647-2A90-47DB-A3CC-B546A4423ACA}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D54E4647-2A90-47DB-A3CC-B546A4423ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="246">
   <si>
     <t>pelvic inflammatory diseases</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,27 +157,6 @@
     <t>Ureaplasma urealyticum</t>
   </si>
   <si>
-    <t>preterm birth (PTB)</t>
-  </si>
-  <si>
-    <t>Lactobacillus crispatus cluster</t>
-  </si>
-  <si>
-    <t>Prevotella cluster 2</t>
-  </si>
-  <si>
-    <t>Sneathia amnii</t>
-  </si>
-  <si>
-    <t>Dialister cluster 51</t>
-  </si>
-  <si>
-    <t>Aerococcus christensenii</t>
-  </si>
-  <si>
-    <t>Parvimonas OTU142</t>
-  </si>
-  <si>
     <t>Facklamia hominis</t>
   </si>
   <si>
@@ -208,39 +187,15 @@
     <t>adenomyosis</t>
   </si>
   <si>
-    <t>Alloscardovia</t>
-  </si>
-  <si>
     <t>Oscillospiraceae</t>
   </si>
   <si>
-    <t>Enhydrobacter</t>
-  </si>
-  <si>
-    <t>Megamonas</t>
-  </si>
-  <si>
     <t>Moraxellaceae</t>
   </si>
   <si>
-    <t>Subdoligranulum</t>
-  </si>
-  <si>
-    <t>Selenomonadaceae</t>
-  </si>
-  <si>
     <t>A.vaginae</t>
   </si>
   <si>
-    <t>G.vagialis</t>
-  </si>
-  <si>
-    <t>L.iners</t>
-  </si>
-  <si>
-    <t>L.crispatus</t>
-  </si>
-  <si>
     <t>g__Dialister</t>
   </si>
   <si>
@@ -307,10 +262,6 @@
   </si>
   <si>
     <t>s__Metamycoplasma_hominis</t>
-  </si>
-  <si>
-    <t>g__Prevotella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>g__Neisseria</t>
@@ -348,14 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s__Sneathia_amnii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Aerococcus_christensenii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s__Facklamia_hominis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,375 +341,586 @@
     <t>g__Atopobium</t>
   </si>
   <si>
+    <t>g__Alloscardovia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Peptoniphilus</t>
+  </si>
+  <si>
+    <t>f__Oscillospiraceae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f__Selenomonadaceae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruminococcaceae</t>
+  </si>
+  <si>
+    <t>f__Ruminococcaceae</t>
+  </si>
+  <si>
+    <t>g__Bacillus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Mycoplasma</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_hyopneumoniae</t>
+  </si>
+  <si>
+    <t>s__Malacoplasma_penetrans</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmoides_gallisepticum</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmopsis_crocodyli</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_conjunctivae</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmoides_genitalium</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmoides_pneumoniae</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_hyorhinis</t>
+  </si>
+  <si>
+    <t>s__Eperythrozoon_haemofelis</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_ovipneumoniae</t>
+  </si>
+  <si>
+    <t>s__Malacoplasma_iowae</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmoides_pirum</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmopsis_leonicaptivi</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_molare</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_hyosynoviae</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_anseris</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_collis</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmoides_alvi</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmopsis_simbae</t>
+  </si>
+  <si>
+    <t>s__Bifidobacterium_lacrimalis</t>
+  </si>
+  <si>
+    <t>s__Fannyhessea_vaginae</t>
+  </si>
+  <si>
+    <t>s__Fannyhessea_vaginae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Sphingomonas</t>
+  </si>
+  <si>
+    <t>s__CAG-536_sp000434355</t>
+  </si>
+  <si>
+    <t>s__Eperythrozoon_haemocanis</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_alkalescens</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_auris</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_orale</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_salivarium</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_bovoculi</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmoides_testudinis</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_flocculare</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_canadense</t>
+  </si>
+  <si>
+    <t>s__Mesomycoplasma_dispar</t>
+  </si>
+  <si>
+    <t>s__GCF-1484045_sp001484045</t>
+  </si>
+  <si>
+    <t>s__Mycoplasmopsis_testudinea</t>
+  </si>
+  <si>
+    <t>s__Metamycoplasma_cloacale</t>
+  </si>
+  <si>
+    <t>s__Diaphorobacter_sp003248855</t>
+  </si>
+  <si>
+    <t>s__MR-S7_sp000400995</t>
+  </si>
+  <si>
+    <t>s__Rhizorhabdus_wittichii</t>
+  </si>
+  <si>
+    <t>s__Rhizorhabdus_histidinilytica</t>
+  </si>
+  <si>
+    <t>s__Sphingobium_sp000153545</t>
+  </si>
+  <si>
+    <t>s__B12_sp000383095</t>
+  </si>
+  <si>
+    <t>s__Rhizorhabdus_sp000971055</t>
+  </si>
+  <si>
+    <t>s__Rhizorhabdus_sp001428605</t>
+  </si>
+  <si>
+    <t>s__Rhizorhabdus_sp001429065</t>
+  </si>
+  <si>
+    <t>s__FW-11_sp003050615</t>
+  </si>
+  <si>
+    <t>s__Rhizorhabdus_sp900101455</t>
+  </si>
+  <si>
+    <t>s__Sphningosinicella_indica</t>
+  </si>
+  <si>
+    <t>s__Urinacoccus_sp000221565</t>
+  </si>
+  <si>
+    <t>s__Paramesorhizobium_sp002980495</t>
+  </si>
+  <si>
+    <t>s__Paramesorhizobium_leguminum</t>
+  </si>
+  <si>
+    <t>s__Urmitella_timonensis</t>
+  </si>
+  <si>
+    <t>s__Cutibacterium_acnes</t>
+  </si>
+  <si>
+    <t>s__Cutibacterium_avidum</t>
+  </si>
+  <si>
+    <t>s__Propionimicrobium_sp000413315</t>
+  </si>
+  <si>
+    <t>s__Cutibacterium_granulosum</t>
+  </si>
+  <si>
+    <t>s__Cutibacterium_namnetense</t>
+  </si>
+  <si>
+    <t>s__Cutibacterium_humerusii</t>
+  </si>
+  <si>
+    <t>s__Bergeriella_sp002216145</t>
+  </si>
+  <si>
+    <t>s__Bergeriella_sp002327085</t>
+  </si>
+  <si>
+    <t>s__Bergeriella_iguanae</t>
+  </si>
+  <si>
+    <t>s__Bergeriella_sp002803635</t>
+  </si>
+  <si>
+    <t>s__Lancefieldella_sp000411555</t>
+  </si>
+  <si>
+    <t>s__Olegusella_sp000466405</t>
+  </si>
+  <si>
+    <t>s__Lancefieldella_sp000564995</t>
+  </si>
+  <si>
+    <t>NCBI name</t>
+  </si>
+  <si>
+    <t>g__Bifidobacterium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corynebacterium spp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialister spp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruminococcaceae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ezakiella</t>
+  </si>
+  <si>
+    <t>Veillonella</t>
+  </si>
+  <si>
+    <t>gestational diabetes</t>
+  </si>
+  <si>
+    <t>g__Ezakiella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Barnesiella_intestinihominis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__CAG-462_sp900291465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bacteroides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Bacteroides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Veillonella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klebsiella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Klebsiella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Kosakonia_cowanii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Escherichia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escherichia/Shigella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterococcus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Cedecea_michiganensis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Pseudomonas_aeruginosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Bacteroides_sartorii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Dysgonomonas_sp000711235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Urmitella_timonensis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Vagococcus_sp002140795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Enterococcus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterobacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Enterobacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Kosakonia_sp000814905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Kosakonia_oryzendophytica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Kosakonia_sp002886105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Lelliottia_sp000016325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Atlantibacter_sp002388125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Citrobacter_portucalensis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gardnerella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gardnerella vagialis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactobacillus iners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactobacillus crispatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bacteroides_vulgatus
+Bacteroides_coprocola
+Bacteroides_dorei
+Bacteroides_salanitronis
+Bacteroides_massiliensis
+Bacteroides_paurosaccharolyticus
+Bacteroides_sartorii
+Bacteroides_coprophilus
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacteroides_graminisolvens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Bacteroides_plebeius
+Bacteroides_sp002491635</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Enterococcus_durans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhydrobacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adenomyosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selenomonadaceae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alloscardovia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Clostridium_leptum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Blautia_wexlerae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__CAG-196_sp002102975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>g__Enhydrobacter</t>
-  </si>
-  <si>
-    <t>g__Subdoligranulum</t>
-  </si>
-  <si>
-    <t>g__Alloscardovia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g__Peptoniphilus</t>
-  </si>
-  <si>
-    <t>f__Oscillospiraceae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f__Moraxellaceae</t>
-  </si>
-  <si>
-    <t>g__Megamonas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f__Selenomonadaceae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruminococcaceae</t>
-  </si>
-  <si>
-    <t>f__Ruminococcaceae</t>
-  </si>
-  <si>
-    <t>s__Moraxella_aerosaccus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Agitococcus_lubricus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Pseudoflavonifractor_capillosus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Ethanoligenens_harbinense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Saccharofermentans_sp900176545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Flavonifractor_sp000508885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Ruminiclostridium_cellulosi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Flavonifractor_plautii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Alistipes_sp900240235</t>
-  </si>
-  <si>
-    <t>s__Bacillus mycoides
-s__Enhydrobacter aerosaccus
-s__Agitococcus lubricus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g__Bacillus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g__Mycoplasma</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_hyopneumoniae</t>
-  </si>
-  <si>
-    <t>s__Malacoplasma_penetrans</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmoides_gallisepticum</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmopsis_crocodyli</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_conjunctivae</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmoides_genitalium</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmoides_pneumoniae</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_hyorhinis</t>
-  </si>
-  <si>
-    <t>s__Eperythrozoon_haemofelis</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_ovipneumoniae</t>
-  </si>
-  <si>
-    <t>s__Malacoplasma_iowae</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmoides_pirum</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmopsis_leonicaptivi</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_molare</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_hyosynoviae</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_anseris</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_collis</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmoides_alvi</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmopsis_simbae</t>
-  </si>
-  <si>
-    <t>s__Bifidobacterium_lacrimalis</t>
-  </si>
-  <si>
-    <t>s__Fannyhessea_vaginae</t>
-  </si>
-  <si>
-    <t>s__Fannyhessea_vaginae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g__Sphingomonas</t>
-  </si>
-  <si>
-    <t>s__CAG-536_sp000434355</t>
-  </si>
-  <si>
-    <t>s__Eperythrozoon_haemocanis</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_alkalescens</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_auris</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_orale</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_salivarium</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_bovoculi</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmoides_testudinis</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_flocculare</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_canadense</t>
-  </si>
-  <si>
-    <t>s__Mesomycoplasma_dispar</t>
-  </si>
-  <si>
-    <t>s__GCF-1484045_sp001484045</t>
-  </si>
-  <si>
-    <t>s__Mycoplasmopsis_testudinea</t>
-  </si>
-  <si>
-    <t>s__Metamycoplasma_cloacale</t>
-  </si>
-  <si>
-    <t>s__Diaphorobacter_sp003248855</t>
-  </si>
-  <si>
-    <t>s__MR-S7_sp000400995</t>
-  </si>
-  <si>
-    <t>s__Rhizorhabdus_wittichii</t>
-  </si>
-  <si>
-    <t>s__Rhizorhabdus_histidinilytica</t>
-  </si>
-  <si>
-    <t>s__Sphingobium_sp000153545</t>
-  </si>
-  <si>
-    <t>s__B12_sp000383095</t>
-  </si>
-  <si>
-    <t>s__Rhizorhabdus_sp000971055</t>
-  </si>
-  <si>
-    <t>s__Rhizorhabdus_sp001428605</t>
-  </si>
-  <si>
-    <t>s__Rhizorhabdus_sp001429065</t>
-  </si>
-  <si>
-    <t>s__FW-11_sp003050615</t>
-  </si>
-  <si>
-    <t>s__Rhizorhabdus_sp900101455</t>
-  </si>
-  <si>
-    <t>s__Sphningosinicella_indica</t>
-  </si>
-  <si>
-    <t>s__Urinacoccus_sp000221565</t>
-  </si>
-  <si>
-    <t>s__Paramesorhizobium_sp002980495</t>
-  </si>
-  <si>
-    <t>s__Paramesorhizobium_leguminum</t>
-  </si>
-  <si>
-    <t>s__Urmitella_timonensis</t>
-  </si>
-  <si>
-    <t>s__Cutibacterium_acnes</t>
-  </si>
-  <si>
-    <t>s__Cutibacterium_avidum</t>
-  </si>
-  <si>
-    <t>s__Propionimicrobium_sp000413315</t>
-  </si>
-  <si>
-    <t>s__Cutibacterium_granulosum</t>
-  </si>
-  <si>
-    <t>s__Cutibacterium_namnetense</t>
-  </si>
-  <si>
-    <t>s__Cutibacterium_humerusii</t>
-  </si>
-  <si>
-    <t>s__Bergeriella_sp002216145</t>
-  </si>
-  <si>
-    <t>s__Bergeriella_sp002327085</t>
-  </si>
-  <si>
-    <t>s__Bergeriella_iguanae</t>
-  </si>
-  <si>
-    <t>s__Bergeriella_sp002803635</t>
-  </si>
-  <si>
-    <t>g__Parvimonas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Lancefieldella_sp000411555</t>
-  </si>
-  <si>
-    <t>s__Olegusella_sp000466405</t>
-  </si>
-  <si>
-    <t>s__Lancefieldella_sp000564995</t>
-  </si>
-  <si>
-    <t>s__Clostridium_leptum</t>
-  </si>
-  <si>
-    <t>s__Blautia_wexlerae</t>
-  </si>
-  <si>
-    <t>s__Pseudoflavonifractor_capillosus</t>
-  </si>
-  <si>
-    <t>s__Ethanoligenens_harbinense</t>
-  </si>
-  <si>
-    <t>s__Saccharofermentans_sp900176545</t>
-  </si>
-  <si>
-    <t>s__Flavonifractor_sp000508885</t>
-  </si>
-  <si>
-    <t>s__Ruminiclostridium_cellulosi</t>
-  </si>
-  <si>
-    <t>s__Flavonifractor_plautii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__UBA4871_sp002119605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Flavonifractor_sp002159175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Flavonifractor_sp002161215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Acutalibacter_muris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Ruminococcus_bromii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__ER4_sp000765235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Ruminococcus_sp900314705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Faecalicatena_torques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__GCA-900066995_sp900291955</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Lawsonibacter_sp900066645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Lawsonibacter_sp900066825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Intestinimonas_massiliensis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Blautia_sp900066165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Anaeromassilibacillus_sp001305115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Marseille-P3106_sp900169975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__UBA945_sp900197595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Solobacterium_sp900290205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Marseille-P4683_sp900232885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s__Acutalibacter_timonensis</t>
-  </si>
-  <si>
-    <t>s__CAG-196_sp002102975</t>
-  </si>
-  <si>
-    <t>s__Pseudomonas_aeruginosa</t>
-  </si>
-  <si>
-    <t>s__Ruthenibacterium_lactatiformans</t>
-  </si>
-  <si>
-    <t>s__Gemmiger_sp003476825</t>
-  </si>
-  <si>
-    <t>NCBI name</t>
-  </si>
-  <si>
-    <t>g__Bifidobacterium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Corynebacterium spp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialister spp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subtract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruminococcaceae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Pseudoflavonifractor_capillosus
+s__Flavonifractor_sp000508885
+s__Flavonifractor_plautii
+s__Flavonifractor_sp002159175
+s__Flavonifractor_sp002161215
+s__ER4_sp000765235
+s__Lawsonibacter_sp900066645
+s__Lawsonibacter_sp900066825
+s__Intestinimonas_massiliensis
+s__Marseille-P3106_sp900169975</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +928,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +974,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -847,19 +1028,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,42 +1102,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1297,18 +1560,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F4BB52-D561-413C-A05D-D56F5D9AA683}">
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.58203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -1316,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -1325,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>32</v>
@@ -1348,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1</v>
@@ -1365,8 +1628,8 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>149</v>
+      <c r="C4" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>32</v>
@@ -1381,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>32</v>
@@ -1396,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>32</v>
@@ -1407,17 +1670,17 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>32</v>
@@ -1442,8 +1705,8 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>90</v>
+      <c r="C9" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>32</v>
@@ -1454,11 +1717,11 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>94</v>
+      <c r="C10" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>32</v>
@@ -1469,11 +1732,11 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>145</v>
+      <c r="C11" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>32</v>
@@ -1488,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>32</v>
@@ -1503,13 +1766,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>32</v>
@@ -1535,7 +1798,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>32</v>
@@ -1550,7 +1813,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>32</v>
@@ -1564,8 +1827,8 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>91</v>
+      <c r="C17" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>32</v>
@@ -1580,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>32</v>
@@ -1609,8 +1872,8 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>149</v>
+      <c r="C20" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>32</v>
@@ -1625,7 +1888,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>32</v>
@@ -1640,7 +1903,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>32</v>
@@ -1655,7 +1918,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>32</v>
@@ -1670,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>32</v>
@@ -1685,7 +1948,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>32</v>
@@ -1700,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>32</v>
@@ -1715,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>32</v>
@@ -1730,7 +1993,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>32</v>
@@ -1745,7 +2008,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>32</v>
@@ -1760,7 +2023,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>32</v>
@@ -1775,7 +2038,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>32</v>
@@ -1790,7 +2053,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>32</v>
@@ -1805,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>32</v>
@@ -1820,7 +2083,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>32</v>
@@ -1835,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>32</v>
@@ -1850,7 +2113,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>32</v>
@@ -1865,7 +2128,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>32</v>
@@ -1880,7 +2143,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>32</v>
@@ -1895,7 +2158,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>32</v>
@@ -1910,7 +2173,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>32</v>
@@ -1925,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>32</v>
@@ -1940,7 +2203,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>32</v>
@@ -1955,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>32</v>
@@ -1970,7 +2233,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>32</v>
@@ -1985,7 +2248,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>32</v>
@@ -2000,7 +2263,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>32</v>
@@ -2015,7 +2278,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>32</v>
@@ -2030,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>32</v>
@@ -2045,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>32</v>
@@ -2060,7 +2323,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>32</v>
@@ -2074,8 +2337,8 @@
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>159</v>
+      <c r="C51" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>32</v>
@@ -2089,8 +2352,8 @@
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>160</v>
+      <c r="C52" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>32</v>
@@ -2104,8 +2367,8 @@
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>161</v>
+      <c r="C53" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>32</v>
@@ -2119,8 +2382,8 @@
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>162</v>
+      <c r="C54" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>32</v>
@@ -2134,8 +2397,8 @@
       <c r="B55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>79</v>
+      <c r="C55" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>32</v>
@@ -2149,14 +2412,14 @@
       <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>80</v>
+      <c r="C56" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2166,8 +2429,8 @@
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>163</v>
+      <c r="C57" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>32</v>
@@ -2181,8 +2444,8 @@
       <c r="B58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>164</v>
+      <c r="C58" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>32</v>
@@ -2196,14 +2459,14 @@
       <c r="B59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>148</v>
+      <c r="C59" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>106</v>
+      <c r="E59" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,8 +2476,8 @@
       <c r="B60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>165</v>
+      <c r="C60" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>32</v>
@@ -2228,8 +2491,8 @@
       <c r="B61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>166</v>
+      <c r="C61" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>32</v>
@@ -2243,8 +2506,8 @@
       <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>167</v>
+      <c r="C62" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>32</v>
@@ -2258,8 +2521,8 @@
       <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>168</v>
+      <c r="C63" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>32</v>
@@ -2273,8 +2536,8 @@
       <c r="B64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>169</v>
+      <c r="C64" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>32</v>
@@ -2288,8 +2551,8 @@
       <c r="B65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>170</v>
+      <c r="C65" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>32</v>
@@ -2303,8 +2566,8 @@
       <c r="B66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>171</v>
+      <c r="C66" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>32</v>
@@ -2318,8 +2581,8 @@
       <c r="B67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>172</v>
+      <c r="C67" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>32</v>
@@ -2333,8 +2596,8 @@
       <c r="B68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>173</v>
+      <c r="C68" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>32</v>
@@ -2348,8 +2611,8 @@
       <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>174</v>
+      <c r="C69" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>32</v>
@@ -2363,8 +2626,8 @@
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>114</v>
+      <c r="C70" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>32</v>
@@ -2378,8 +2641,8 @@
       <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>175</v>
+      <c r="C71" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>32</v>
@@ -2393,14 +2656,14 @@
       <c r="B72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>81</v>
+      <c r="C72" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2410,8 +2673,8 @@
       <c r="B73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>176</v>
+      <c r="C73" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>32</v>
@@ -2426,7 +2689,7 @@
         <v>25</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>32</v>
@@ -2441,7 +2704,7 @@
         <v>26</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>32</v>
@@ -2452,11 +2715,11 @@
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>83</v>
+      <c r="C76" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>32</v>
@@ -2471,7 +2734,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>32</v>
@@ -2486,7 +2749,7 @@
         <v>27</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>32</v>
@@ -2501,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>32</v>
@@ -2515,8 +2778,8 @@
       <c r="B80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>85</v>
+      <c r="C80" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>32</v>
@@ -2530,8 +2793,8 @@
       <c r="B81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>179</v>
+      <c r="C81" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>32</v>
@@ -2545,8 +2808,8 @@
       <c r="B82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>180</v>
+      <c r="C82" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>32</v>
@@ -2560,8 +2823,8 @@
       <c r="B83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>181</v>
+      <c r="C83" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>32</v>
@@ -2575,8 +2838,8 @@
       <c r="B84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>182</v>
+      <c r="C84" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>32</v>
@@ -2590,8 +2853,8 @@
       <c r="B85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>183</v>
+      <c r="C85" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>32</v>
@@ -2605,8 +2868,8 @@
       <c r="B86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>184</v>
+      <c r="C86" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>32</v>
@@ -2620,8 +2883,8 @@
       <c r="B87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>86</v>
+      <c r="C87" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>34</v>
@@ -2635,8 +2898,8 @@
       <c r="B88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>103</v>
+      <c r="C88" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>34</v>
@@ -2650,8 +2913,8 @@
       <c r="B89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>89</v>
+      <c r="C89" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>34</v>
@@ -2665,8 +2928,8 @@
       <c r="B90" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>185</v>
+      <c r="C90" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>34</v>
@@ -2680,8 +2943,8 @@
       <c r="B91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>186</v>
+      <c r="C91" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>34</v>
@@ -2695,8 +2958,8 @@
       <c r="B92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>187</v>
+      <c r="C92" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>34</v>
@@ -2710,8 +2973,8 @@
       <c r="B93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>188</v>
+      <c r="C93" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>34</v>
@@ -2726,7 +2989,7 @@
         <v>31</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>34</v>
@@ -2741,7 +3004,7 @@
         <v>31</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>34</v>
@@ -2752,11 +3015,11 @@
       <c r="A96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="16" t="s">
-        <v>94</v>
+      <c r="C96" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>32</v>
@@ -2767,11 +3030,11 @@
       <c r="A97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>145</v>
+      <c r="C97" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>32</v>
@@ -2786,7 +3049,7 @@
         <v>37</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>32</v>
@@ -2801,7 +3064,7 @@
         <v>38</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>32</v>
@@ -2810,28 +3073,28 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>34</v>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>32</v>
@@ -2840,13 +3103,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>98</v>
+      <c r="C102" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>32</v>
@@ -2855,58 +3118,58 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>32</v>
@@ -2915,13 +3178,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>149</v>
+        <v>41</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>32</v>
@@ -2930,13 +3193,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>32</v>
@@ -2945,28 +3208,28 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>34</v>
@@ -2975,28 +3238,28 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>147</v>
+        <v>43</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>32</v>
@@ -3005,13 +3268,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>32</v>
@@ -3020,13 +3283,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>145</v>
+        <v>42</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>32</v>
@@ -3035,13 +3298,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>32</v>
@@ -3050,28 +3313,28 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>32</v>
@@ -3080,43 +3343,43 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E118" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>32</v>
@@ -3125,13 +3388,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>175</v>
+        <v>15</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>32</v>
@@ -3140,13 +3403,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>32</v>
@@ -3155,13 +3418,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>32</v>
@@ -3170,43 +3433,43 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E124" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>32</v>
@@ -3215,13 +3478,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>32</v>
@@ -3230,13 +3493,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>110</v>
+        <v>203</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>32</v>
@@ -3245,13 +3508,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>190</v>
+        <v>212</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>32</v>
@@ -3260,13 +3523,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>191</v>
+        <v>97</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>32</v>
@@ -3275,13 +3538,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>192</v>
+        <v>97</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>32</v>
@@ -3290,13 +3553,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>32</v>
@@ -3305,13 +3568,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>32</v>
@@ -3320,13 +3583,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>145</v>
+        <v>97</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>32</v>
@@ -3335,13 +3598,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>32</v>
@@ -3350,13 +3613,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>32</v>
@@ -3365,13 +3628,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>32</v>
@@ -3380,13 +3643,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>32</v>
@@ -3395,13 +3658,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>32</v>
@@ -3410,13 +3673,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>32</v>
@@ -3425,13 +3688,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>197</v>
+        <v>97</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>32</v>
@@ -3440,13 +3703,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>198</v>
+        <v>97</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>32</v>
@@ -3455,13 +3718,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>32</v>
@@ -3470,13 +3733,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>32</v>
@@ -3485,13 +3748,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>122</v>
+        <v>172</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>32</v>
@@ -3500,13 +3763,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>201</v>
+        <v>97</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>32</v>
@@ -3515,13 +3778,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>202</v>
+        <v>97</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>32</v>
@@ -3530,13 +3793,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>203</v>
+        <v>97</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>32</v>
@@ -3545,13 +3808,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>32</v>
@@ -3560,13 +3823,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>32</v>
@@ -3575,13 +3838,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>206</v>
+        <v>97</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>32</v>
@@ -3590,13 +3853,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>207</v>
+        <v>97</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>32</v>
@@ -3605,13 +3868,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>32</v>
@@ -3620,13 +3883,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>32</v>
@@ -3635,13 +3898,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>210</v>
+        <v>97</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>32</v>
@@ -3650,13 +3913,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>211</v>
+        <v>97</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>32</v>
@@ -3665,13 +3928,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>32</v>
@@ -3680,43 +3943,45 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="125" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>214</v>
+        <v>49</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E159" s="1"/>
+      <c r="E159" s="21" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>32</v>
@@ -3725,43 +3990,45 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>216</v>
+        <v>50</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E161" s="1"/>
+      <c r="E161" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>217</v>
+        <v>50</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>218</v>
+        <v>50</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>32</v>
@@ -3770,13 +4037,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>32</v>
@@ -3785,195 +4052,184 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E165" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E166" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>116</v>
+        <v>5</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E169" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="E169" s="8"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>220</v>
+        <v>5</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E171" s="1"/>
+      <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E172" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E173" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>61</v>
+        <v>175</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E174" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E175" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>83</v>
+        <v>175</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E176" s="7"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>105</v>
+        <v>175</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>34</v>
@@ -3981,104 +4237,312 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="187" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>103</v>
+        <v>175</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>114</v>
+        <v>175</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E180" s="9"/>
+      <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>5</v>
+        <v>175</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>124</v>
+        <v>175</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E182" s="9"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E187" s="9"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E190" s="9"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E193" s="9"/>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E195" s="9"/>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E197" s="9"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="15"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E187" s="8"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E191" s="8"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E193" s="8"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E195" s="8"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C94:C95">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C95">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195:C196">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174:C175">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176:C177">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193:C194">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C95">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  <conditionalFormatting sqref="C172:C173">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135:C175">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  <conditionalFormatting sqref="C129:C164">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input/phenotype_microbiome.xlsx
+++ b/input/phenotype_microbiome.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\질내미생물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102B006-A8A7-4E03-AE01-BAC45163AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A9A56-245A-44F6-823A-713A2BF794E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D54E4647-2A90-47DB-A3CC-B546A4423ACA}"/>
+    <workbookView xWindow="43590" yWindow="240" windowWidth="15735" windowHeight="15705" xr2:uid="{D54E4647-2A90-47DB-A3CC-B546A4423ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,18 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="246">
-  <si>
-    <t>pelvic inflammatory diseases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="243">
   <si>
     <t>s__Chlamydia_trachomatis</t>
   </si>
   <si>
-    <t>Neisseria gonorrhoeae</t>
-  </si>
-  <si>
     <t>Chlamydia trachomatis</t>
   </si>
   <si>
@@ -56,9 +49,6 @@
     <t>Peptoniphilus</t>
   </si>
   <si>
-    <t>vaginal dryness</t>
-  </si>
-  <si>
     <t>Bacillus</t>
   </si>
   <si>
@@ -73,15 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>endometritis</t>
-  </si>
-  <si>
-    <t>Streptococcus spp.</t>
-  </si>
-  <si>
-    <t>Ureaplasma spp.</t>
-  </si>
-  <si>
     <t>Dialister</t>
   </si>
   <si>
@@ -94,18 +75,9 @@
     <t>Anaerococcus</t>
   </si>
   <si>
-    <t>Staphylococcus spp.</t>
-  </si>
-  <si>
     <t>Enterococcus faecalis</t>
   </si>
   <si>
-    <t>C. trachomatis</t>
-  </si>
-  <si>
-    <t>Mycoplasma spp.</t>
-  </si>
-  <si>
     <t>Klebsiella pneumoniae</t>
   </si>
   <si>
@@ -118,9 +90,6 @@
     <t>Phyllobacterium</t>
   </si>
   <si>
-    <t>Escherichia/Shigella</t>
-  </si>
-  <si>
     <t>Varibaculum</t>
   </si>
   <si>
@@ -139,15 +108,9 @@
     <t>증가</t>
   </si>
   <si>
-    <t>E.coli</t>
-  </si>
-  <si>
     <t>감소</t>
   </si>
   <si>
-    <t>miscarriage</t>
-  </si>
-  <si>
     <t>Gardnerella vaginalis</t>
   </si>
   <si>
@@ -160,42 +123,12 @@
     <t>Facklamia hominis</t>
   </si>
   <si>
-    <t>ovarian cancer</t>
-  </si>
-  <si>
-    <t>Cervical intraepithelial neoplasia</t>
-  </si>
-  <si>
-    <t>preterm prelabor rupture of membranes (PPROM)</t>
-  </si>
-  <si>
-    <t>Prevotella spp.</t>
-  </si>
-  <si>
-    <t>Peptoniphilus spp.</t>
-  </si>
-  <si>
-    <t>Dialister spp.</t>
-  </si>
-  <si>
-    <t>dysmenorrhea(Menstrual pain)</t>
-  </si>
-  <si>
     <t>Atopobium</t>
   </si>
   <si>
-    <t>adenomyosis</t>
-  </si>
-  <si>
-    <t>Oscillospiraceae</t>
-  </si>
-  <si>
     <t>Moraxellaceae</t>
   </si>
   <si>
-    <t>A.vaginae</t>
-  </si>
-  <si>
     <t>g__Dialister</t>
   </si>
   <si>
@@ -244,9 +177,6 @@
   </si>
   <si>
     <t>g__Phyllobacterium</t>
-  </si>
-  <si>
-    <t>g__Escherichia</t>
   </si>
   <si>
     <t>g__Lactobacillus</t>
@@ -575,14 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Corynebacterium spp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialister spp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>subtract</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,15 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ezakiella</t>
-  </si>
-  <si>
-    <t>Veillonella</t>
-  </si>
-  <si>
-    <t>gestational diabetes</t>
-  </si>
-  <si>
     <t>g__Ezakiella</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,10 +622,6 @@
   </si>
   <si>
     <t>Gardnerella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gardnerella vagialis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -771,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adenomyosis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Selenomonadaceae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -923,12 +828,113 @@
 s__Marseille-P3106_sp900169975</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Ureaplasma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staphylococcus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streptococcus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Mycoplasma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corynebacterium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pelvic Inflammatory Diseases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endometritis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miscarriage</t>
+  </si>
+  <si>
+    <t>Ovarian Cancer</t>
+  </si>
+  <si>
+    <t>Cervical Intraepithelial Neoplasia</t>
+  </si>
+  <si>
+    <t>Preterm Prelabor Rupture of Membranes (PPROM)</t>
+  </si>
+  <si>
+    <t>Dysmenorrhea (Menstrual pain)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atopobium vaginae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prevotella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peptoniphilus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adenomyosis</t>
+  </si>
+  <si>
+    <t>Vaginal Dryness</t>
+  </si>
+  <si>
+    <t>Gestational Diabetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gardnerella vaginalis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ezakiella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veillonella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moraxellaceae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscillospiraceae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,6 +987,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1077,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,7 +1150,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1143,6 +1158,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,2989 +1587,3040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F4BB52-D561-413C-A05D-D56F5D9AA683}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.08203125" customWidth="1"/>
+    <col min="1" max="1" width="39.9140625" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.58203125" customWidth="1"/>
+    <col min="4" max="4" width="8.9140625" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C72" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>67</v>
+        <v>224</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>68</v>
+        <v>224</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>153</v>
+        <v>18</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>163</v>
+        <v>21</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>34</v>
+        <v>225</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>120</v>
+        <v>225</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C100" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="D100" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>124</v>
+        <v>27</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>84</v>
+        <v>222</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>34</v>
+        <v>230</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>122</v>
+        <v>227</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>120</v>
+        <v>227</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>34</v>
+        <v>231</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>53</v>
+        <v>231</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>74</v>
+        <v>218</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>62</v>
+        <v>232</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>150</v>
+        <v>216</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E117" s="1"/>
+      <c r="D117" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E118" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>121</v>
+        <v>10</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="22"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="22"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="22"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="22"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="22"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="22"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="22"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="22"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="22"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="22"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="22"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="22"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="22"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="22"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="22"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="22"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="22"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="22"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="22"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="22"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="22"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="22"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="22"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="22"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="22"/>
+    </row>
+    <row r="158" spans="1:6" ht="125" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F158" s="22"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="22"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F160" s="22"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="22"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="22"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="22"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="7"/>
+      <c r="F164" s="22"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" s="22"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="22"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="22"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="22"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="22"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="8"/>
+      <c r="F170" s="22"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="D171" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="22"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" s="23"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" s="22"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" s="22"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="D175" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" s="22"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" s="22"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" s="22"/>
+    </row>
+    <row r="178" spans="1:6" ht="187" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F178" s="22"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="8"/>
+      <c r="F179" s="22"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180" s="8"/>
+      <c r="F180" s="22"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="22"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="15"/>
+      <c r="F182" s="24"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183" s="8"/>
+      <c r="F183" s="25"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="22"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="8"/>
+      <c r="F185" s="25"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" s="8"/>
+      <c r="F186" s="22"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="22"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="22"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" s="22"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="8"/>
+      <c r="F190" s="22"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="22"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="22"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C149" s="3" t="s">
+      <c r="D193" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="22"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" ht="125" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E165" s="7"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E169" s="8"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E171" s="8"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C177" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" s="13" t="s">
+      <c r="B194" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C194" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="187" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E179" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E180" s="8"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E181" s="8"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B182" s="13" t="s">
+      <c r="D194" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" s="8"/>
+      <c r="F194" s="22"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C195" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C182" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E183" s="15"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E185" s="8"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E186" s="8"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E187" s="8"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B189" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E191" s="8"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E193" s="8"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="D195" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E195" s="8"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B196" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F195" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C94:C95">
+  <conditionalFormatting sqref="C93:C94">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C95">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+  <conditionalFormatting sqref="C194:C195">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C195:C196">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="C173:C174">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174:C175">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="C175:C176">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176:C177">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="C192:C193">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C193:C194">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="C171:C172">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C173">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="C128:C163">
+    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:C164">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  <conditionalFormatting sqref="C5:C94">
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/input/phenotype_microbiome.xlsx
+++ b/input/phenotype_microbiome.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\1704304_2_11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A9A56-245A-44F6-823A-713A2BF794E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6AF98-E017-439E-AF48-0F58BC637E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43590" yWindow="240" windowWidth="15735" windowHeight="15705" xr2:uid="{D54E4647-2A90-47DB-A3CC-B546A4423ACA}"/>
+    <workbookView xWindow="44340" yWindow="2025" windowWidth="17055" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="0330" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="214">
   <si>
     <t>s__Chlamydia_trachomatis</t>
   </si>
@@ -124,6 +115,9 @@
   </si>
   <si>
     <t>Atopobium</t>
+  </si>
+  <si>
+    <t>Oscillospiraceae</t>
   </si>
   <si>
     <t>Moraxellaceae</t>
@@ -282,16 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f__Selenomonadaceae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruminococcaceae</t>
-  </si>
-  <si>
-    <t>f__Ruminococcaceae</t>
-  </si>
-  <si>
     <t>g__Bacillus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +490,6 @@
   </si>
   <si>
     <t>subtract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruminococcaceae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,22 +660,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Selenomonadaceae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alloscardovia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s__Clostridium_leptum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Blautia_wexlerae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s__CAG-196_sp002102975</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,127 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s__Agitococcus_lubricus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Pseudoflavonifractor_capillosus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Ethanoligenens_harbinense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Saccharofermentans_sp900176545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Flavonifractor_sp000508885</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Ruminiclostridium_cellulosi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Flavonifractor_plautii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Alistipes_sp900240235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__UBA4871_sp002119605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Flavonifractor_sp002159175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Flavonifractor_sp002161215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Acutalibacter_muris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Ruminococcus_bromii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__ER4_sp000765235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Ruminococcus_sp900314705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Faecalicatena_torques</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__GCA-900066995_sp900291955</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Lawsonibacter_sp900066645</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Lawsonibacter_sp900066825</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Intestinimonas_massiliensis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Blautia_sp900066165</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Anaeromassilibacillus_sp001305115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Marseille-P3106_sp900169975</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__UBA945_sp900197595</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Solobacterium_sp900290205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Marseille-P4683_sp900232885</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Acutalibacter_timonensis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s__Pseudoflavonifractor_capillosus
-s__Flavonifractor_sp000508885
-s__Flavonifractor_plautii
-s__Flavonifractor_sp002159175
-s__Flavonifractor_sp002161215
-s__ER4_sp000765235
-s__Lawsonibacter_sp900066645
-s__Lawsonibacter_sp900066825
-s__Intestinimonas_massiliensis
-s__Marseille-P3106_sp900169975</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ureaplasma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,15 +765,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Moraxellaceae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Neisseria gonorrhoeae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oscillospiraceae</t>
+    <t>Megamonas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g__Megamonas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subdoligranulum</t>
+  </si>
+  <si>
+    <t>g__Subdoligranulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Gemmiger_sp003476825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s__Ruthenibacterium_lactatiformans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subdoligranulum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,15 +857,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1016,8 +873,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,12 +914,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,33 +1008,57 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1586,21 +1468,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F4BB52-D561-413C-A05D-D56F5D9AA683}">
-  <dimension ref="A1:F195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.9140625" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.58203125" customWidth="1"/>
-    <col min="4" max="4" width="8.9140625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="6" max="6" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -1608,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1617,18 +1498,18 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>22</v>
@@ -1637,10 +1518,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
@@ -1652,13 +1533,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>22</v>
@@ -1667,13 +1548,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>22</v>
@@ -1682,13 +1563,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>22</v>
@@ -1697,30 +1578,30 @@
     </row>
     <row r="7" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>22</v>
@@ -1729,13 +1610,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>22</v>
@@ -1744,13 +1625,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
@@ -1759,13 +1640,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>22</v>
@@ -1774,13 +1655,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>22</v>
@@ -1789,30 +1670,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>22</v>
@@ -1821,13 +1702,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>22</v>
@@ -1836,13 +1717,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>22</v>
@@ -1851,13 +1732,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>22</v>
@@ -1866,13 +1747,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>22</v>
@@ -1881,10 +1762,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>0</v>
@@ -1896,13 +1777,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>22</v>
@@ -1911,13 +1792,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>22</v>
@@ -1926,13 +1807,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>22</v>
@@ -1941,13 +1822,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>22</v>
@@ -1956,13 +1837,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>22</v>
@@ -1971,13 +1852,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>22</v>
@@ -1986,13 +1867,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>22</v>
@@ -2001,13 +1882,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>22</v>
@@ -2016,13 +1897,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>22</v>
@@ -2031,13 +1912,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>22</v>
@@ -2046,13 +1927,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>22</v>
@@ -2061,13 +1942,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>22</v>
@@ -2076,13 +1957,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>22</v>
@@ -2091,13 +1972,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>22</v>
@@ -2106,13 +1987,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>22</v>
@@ -2121,13 +2002,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>22</v>
@@ -2136,13 +2017,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>22</v>
@@ -2151,13 +2032,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>22</v>
@@ -2166,13 +2047,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>22</v>
@@ -2181,13 +2062,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>22</v>
@@ -2196,13 +2077,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>22</v>
@@ -2211,13 +2092,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>22</v>
@@ -2226,13 +2107,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>22</v>
@@ -2241,13 +2122,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>22</v>
@@ -2256,13 +2137,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>22</v>
@@ -2271,13 +2152,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>22</v>
@@ -2286,13 +2167,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>22</v>
@@ -2301,13 +2182,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>22</v>
@@ -2316,13 +2197,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>22</v>
@@ -2331,13 +2212,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>22</v>
@@ -2346,13 +2227,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>22</v>
@@ -2361,13 +2242,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>22</v>
@@ -2376,13 +2257,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>22</v>
@@ -2391,13 +2272,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>22</v>
@@ -2406,13 +2287,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>22</v>
@@ -2421,13 +2302,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>22</v>
@@ -2436,30 +2317,30 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>22</v>
@@ -2468,13 +2349,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>22</v>
@@ -2483,30 +2364,30 @@
     </row>
     <row r="59" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>22</v>
@@ -2515,13 +2396,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>22</v>
@@ -2530,13 +2411,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>22</v>
@@ -2545,13 +2426,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>22</v>
@@ -2560,13 +2441,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>22</v>
@@ -2575,13 +2456,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>22</v>
@@ -2590,13 +2471,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>22</v>
@@ -2605,13 +2486,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>22</v>
@@ -2620,13 +2501,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>22</v>
@@ -2635,13 +2516,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>22</v>
@@ -2650,13 +2531,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>22</v>
@@ -2665,13 +2546,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>22</v>
@@ -2680,30 +2561,30 @@
     </row>
     <row r="72" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>22</v>
@@ -2712,13 +2593,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>22</v>
@@ -2727,13 +2608,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>22</v>
@@ -2742,13 +2623,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>22</v>
@@ -2757,13 +2638,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>22</v>
@@ -2772,13 +2653,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>22</v>
@@ -2787,13 +2668,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>22</v>
@@ -2802,13 +2683,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>22</v>
@@ -2817,13 +2698,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>22</v>
@@ -2832,13 +2713,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>22</v>
@@ -2847,13 +2728,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>22</v>
@@ -2862,13 +2743,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>22</v>
@@ -2877,13 +2758,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>22</v>
@@ -2892,13 +2773,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>23</v>
@@ -2907,13 +2788,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>23</v>
@@ -2922,13 +2803,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>23</v>
@@ -2937,13 +2818,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>23</v>
@@ -2952,13 +2833,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>23</v>
@@ -2967,13 +2848,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>23</v>
@@ -2982,13 +2863,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>23</v>
@@ -2997,13 +2878,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>23</v>
@@ -3012,13 +2893,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>23</v>
@@ -3027,13 +2908,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>22</v>
@@ -3042,13 +2923,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>22</v>
@@ -3057,13 +2938,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>22</v>
@@ -3072,13 +2953,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>22</v>
@@ -3087,7 +2968,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -3102,13 +2983,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>22</v>
@@ -3117,13 +2998,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>22</v>
@@ -3132,13 +3013,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>23</v>
@@ -3147,13 +3028,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>23</v>
@@ -3162,13 +3043,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>23</v>
@@ -3177,13 +3058,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>22</v>
@@ -3192,13 +3073,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>22</v>
@@ -3207,13 +3088,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>22</v>
@@ -3222,13 +3103,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>22</v>
@@ -3237,13 +3118,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>23</v>
@@ -3252,13 +3133,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>22</v>
@@ -3267,13 +3148,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>22</v>
@@ -3282,13 +3163,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>22</v>
@@ -3297,13 +3178,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>22</v>
@@ -3312,13 +3193,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>22</v>
@@ -3327,13 +3208,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>22</v>
@@ -3342,13 +3223,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>22</v>
@@ -3357,13 +3238,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>23</v>
@@ -3372,13 +3253,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>23</v>
@@ -3387,13 +3268,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>22</v>
@@ -3402,13 +3283,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>22</v>
@@ -3417,13 +3298,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>22</v>
@@ -3432,13 +3313,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>22</v>
@@ -3447,13 +3328,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>22</v>
@@ -3462,13 +3343,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>22</v>
@@ -3477,13 +3358,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>22</v>
@@ -3492,13 +3373,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>22</v>
@@ -3507,13 +3388,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>22</v>
@@ -3522,1105 +3403,656 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="8"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="8"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="187" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="22"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="22"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="22"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="22"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="22"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="22"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="22"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="22"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="22"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="22"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="22"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="22"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144" s="3" t="s">
+      <c r="D154" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="22"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="22"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="22"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="22"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C148" s="3" t="s">
+      <c r="B155" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="22"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="22"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="22"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="22"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="22"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="22"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="22"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>212</v>
+      <c r="C155" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="22"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="22"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="22"/>
-    </row>
-    <row r="158" spans="1:6" ht="125" x14ac:dyDescent="0.25">
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>72</v>
+        <v>201</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F158" s="22"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>186</v>
+        <v>201</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="22"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F160" s="22"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="22"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>161</v>
+        <v>201</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="22"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>73</v>
+        <v>201</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="22"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E164" s="7"/>
-      <c r="F164" s="22"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" s="22"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>48</v>
+        <v>201</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F166" s="22"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E166" s="8"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>62</v>
+        <v>201</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F167" s="22"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>71</v>
+        <v>201</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E168" s="8"/>
-      <c r="F168" s="22"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>127</v>
+        <v>201</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F169" s="22"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E170" s="8"/>
-      <c r="F170" s="22"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="22"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F172" s="23"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C173" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F173" s="22"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F174" s="22"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F175" s="22"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F176" s="22"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F177" s="22"/>
-    </row>
-    <row r="178" spans="1:6" ht="187" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F178" s="22"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="22"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180" s="8"/>
-      <c r="F180" s="22"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181" s="22"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" s="15"/>
-      <c r="F182" s="24"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E183" s="8"/>
-      <c r="F183" s="25"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E184" s="8"/>
-      <c r="F184" s="22"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E185" s="8"/>
-      <c r="F185" s="25"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E186" s="8"/>
-      <c r="F186" s="22"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F187" s="22"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F188" s="22"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B189" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F189" s="22"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190" s="8"/>
-      <c r="F190" s="22"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F191" s="22"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="22"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F193" s="22"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E194" s="8"/>
-      <c r="F194" s="22"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F195" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C194:C195">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  <conditionalFormatting sqref="C168:C169">
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C173:C174">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  <conditionalFormatting sqref="C147:C148">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C175:C176">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  <conditionalFormatting sqref="C149:C150">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C192:C193">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  <conditionalFormatting sqref="C166:C167">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C171:C172">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128:C163">
-    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
+  <conditionalFormatting sqref="C145:C146">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C94">
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128:C130">
+    <cfRule type="duplicateValues" dxfId="3" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134:C137">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132:C133">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
